--- a/output_batch_size_1.xlsx
+++ b/output_batch_size_1.xlsx
@@ -448,70 +448,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(860, 860)</t>
+          <t>(817, 817)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(317, 311)</t>
+          <t>(221, 210)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(1346.8571975446255, 138, 179, 0.5646687697160884)</t>
+          <t>(102.53234317435835, 56, 165, 0.746606334841629)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(1285.0966336961726, 139, 172, 0.5530546623794212)</t>
+          <t>(40.905336072156615, 60, 150, 0.7142857142857143)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(224, 226)</t>
+          <t>(180, 186)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(4258.231712862658, 56, 168, 0.75)</t>
+          <t>(7787.552231732369, 38, 142, 0.7888888888888889)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(3997.010204132391, 56, 170, 0.7522123893805309)</t>
+          <t>(8261.761839277066, 46, 140, 0.7526881720430108)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(224, 226)</t>
+          <t>(180, 186)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(3397.6808514568056, 235, 348, 0.5969125214408233)</t>
+          <t>(2193.6882154481646, 202, 374, 0.6493055555555556)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(3462.7379885339237, 234, 324, 0.5806451612903226)</t>
+          <t>(2287.410023130107, 185, 365, 0.6636363636363637)</t>
         </is>
       </c>
     </row>

--- a/output_batch_size_1.xlsx
+++ b/output_batch_size_1.xlsx
@@ -448,70 +448,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(817, 817)</t>
+          <t>(747, 747)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(221, 210)</t>
+          <t>(323, 316)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(102.53234317435835, 56, 165, 0.746606334841629)</t>
+          <t>(571.7540111226488, 134, 189, 0.5851393188854489)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(40.905336072156615, 60, 150, 0.7142857142857143)</t>
+          <t>(511.08505224262893, 131, 185, 0.5854430379746836)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(180, 186)</t>
+          <t>(207, 207)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(7787.552231732369, 38, 142, 0.7888888888888889)</t>
+          <t>(1419.1305445626379, 50, 157, 0.7584541062801933)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(8261.761839277066, 46, 140, 0.7526881720430108)</t>
+          <t>(1422.0876133695626, 47, 160, 0.7729468599033816)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(180, 186)</t>
+          <t>(207, 207)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(2193.6882154481646, 202, 374, 0.6493055555555556)</t>
+          <t>(2002.6676515741235, 186, 334, 0.6423076923076924)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(2287.410023130107, 185, 365, 0.6636363636363637)</t>
+          <t>(2087.396432481903, 181, 357, 0.6635687732342007)</t>
         </is>
       </c>
     </row>
